--- a/biology/Zoologie/Graphium_illyris/Graphium_illyris.xlsx
+++ b/biology/Zoologie/Graphium_illyris/Graphium_illyris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Graphium illyris est une  espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des  Papilioninae, du genre Graphium, du sous-genre Graphium (Arisbe).
 </t>
@@ -511,11 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Graphium (Arisbe) illyris a été décrit par le naturaliste anglais William Chapman Hewitson en 1872, sous le nom initial de Papilio illyris [1].
-Synonymie
-Papilio illyris Protonyme</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graphium (Arisbe) illyris a été décrit par le naturaliste anglais William Chapman Hewitson en 1872, sous le nom initial de Papilio illyris .
+</t>
         </is>
       </c>
     </row>
@@ -540,25 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Il existe pour ce genre quatre sous-espèces[2]
-Graphium (Arisbe) illyris illyris (Sierra Leone, Libéria, Coste d'Ivoire, Ghana)
-Synonymie pour cette sous-espèce
-Papilio illyris f. stictica (Le Cerf, 1924)[3]
-Papilio (Cosmodesmus) illyris ab. addenda (Dufrane, 1946) [4]
-Graphium (Arisbe) illyris  flavisparsus (Fruhstorfer, 1903) (Guinée équatoriale)
-Synonymie pour cette sous-espèce
-Papilio illyris flavisparsus (Fruhstorfer, 1903)[5]
-Graphium (Arisbe) illyris  girardeaui (Guilbot &amp; Plantrou, 1978) (Centrafrique)
-Synonymie pour cette sous-espèce
-Papilio illyris girardeaui (Guilbot &amp; Plantrou, 1978)[6]
-Graphium (Arisbe) illyris  hamatus (Joicey &amp; Talbot, 1918) (Nigéria, Cameroun, Guinée équatoriale, Gabon, Congo, Zaïre, Tanzanie)
-Synonymie pour cette sous-espèce
-Papilio illyris hamatus (Joicey &amp; Talbot, 1918)[7]</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio illyris Protonyme</t>
         </is>
       </c>
     </row>
@@ -583,10 +589,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe pour ce genre quatre sous-espèces
+Graphium (Arisbe) illyris illyris (Sierra Leone, Libéria, Coste d'Ivoire, Ghana)
+Synonymie pour cette sous-espèce
+Papilio illyris f. stictica (Le Cerf, 1924)
+Papilio (Cosmodesmus) illyris ab. addenda (Dufrane, 1946) 
+Graphium (Arisbe) illyris  flavisparsus (Fruhstorfer, 1903) (Guinée équatoriale)
+Synonymie pour cette sous-espèce
+Papilio illyris flavisparsus (Fruhstorfer, 1903)
+Graphium (Arisbe) illyris  girardeaui (Guilbot &amp; Plantrou, 1978) (Centrafrique)
+Synonymie pour cette sous-espèce
+Papilio illyris girardeaui (Guilbot &amp; Plantrou, 1978)
+Graphium (Arisbe) illyris  hamatus (Joicey &amp; Talbot, 1918) (Nigéria, Cameroun, Guinée équatoriale, Gabon, Congo, Zaïre, Tanzanie)
+Synonymie pour cette sous-espèce
+Papilio illyris hamatus (Joicey &amp; Talbot, 1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Graphium_illyris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphium_illyris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Papillon africain trouvé dans les forêts primaires, de Guinée, Sierra Léone, Liberia, Côte d’Ivoire, Ghana, Togo, Bénin, Congo, Zaïre, Cameroun, Gabon. Écozone afrotropicale.
 </t>
